--- a/course/data_dash_schedule.xlsx
+++ b/course/data_dash_schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brennan\github\teaching\data_dashboard_development\course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brennan\github\teaching\data_dashboard_class\course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D3A05-9936-47A5-A1E8-04B8D1A1952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9241515B-2CE3-450D-ABC0-0CD1E89E788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F61C041A-E9AE-49DC-BE23-49AB2B0A15C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Topics</t>
   </si>
   <si>
-    <t>* - In person attendance required</t>
-  </si>
-  <si>
     <t>Read Ahead Materials</t>
   </si>
   <si>
@@ -63,87 +60,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>2.5: Package Testing</t>
-  </si>
-  <si>
-    <t>2.6: Function Documentation and Vignettes</t>
-  </si>
-  <si>
-    <t>3.2: Measuring and Improving Efficiency</t>
-  </si>
-  <si>
-    <t>3.3: RCPP I</t>
-  </si>
-  <si>
-    <t>rcpp.org articles</t>
-  </si>
-  <si>
-    <t>2.7: Package Checks and Deployment</t>
-  </si>
-  <si>
-    <t>see canvas articles</t>
-  </si>
-  <si>
-    <t>1.1: Course Intro / Motivation / Review of Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2: Introduction to Github </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 in (1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 in (1) </t>
-  </si>
-  <si>
-    <t>(1) https://adv-r.hadley.nz/index.html</t>
-  </si>
-  <si>
-    <t>10 - 13 in (2)</t>
-  </si>
-  <si>
-    <t>14 - 16 in (2)</t>
-  </si>
-  <si>
-    <t>17 - 18 in (2)</t>
-  </si>
-  <si>
-    <t>(2) https://r-pkgs.org/</t>
-  </si>
-  <si>
-    <t>22 in (1); 18 in (3)</t>
-  </si>
-  <si>
-    <t>(3) https://bookdown.org/rdpeng/rprogdatascience/</t>
-  </si>
-  <si>
-    <t>(4) https://nlopt.readthedocs.io/en/latest/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5) http://rafalab.dfci.harvard.edu/dsbook/ </t>
-  </si>
-  <si>
-    <t>38 - 39 in (5); 2 in (1)</t>
-  </si>
-  <si>
-    <t>Homework 1</t>
-  </si>
-  <si>
-    <t>Homework 4</t>
-  </si>
-  <si>
-    <t>Homework 2</t>
-  </si>
-  <si>
-    <t>Homework 3</t>
-  </si>
-  <si>
-    <t>19 - 22, Appendix A in (2)</t>
-  </si>
-  <si>
-    <t>23 - 24 in (1); 19 in (3)</t>
-  </si>
-  <si>
     <t>No class (Finals Week)</t>
   </si>
   <si>
@@ -160,6 +76,57 @@
   </si>
   <si>
     <t>No class (Two Credit Adjustment)</t>
+  </si>
+  <si>
+    <t>Final In-Class Presentations</t>
+  </si>
+  <si>
+    <t>Project Work Day</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>Team Building Day</t>
+  </si>
+  <si>
+    <t>https://mastering-shiny.org/index.html</t>
+  </si>
+  <si>
+    <t>Attendance Required All Days of Class</t>
+  </si>
+  <si>
+    <t>1: First Shiny App</t>
+  </si>
+  <si>
+    <t>2: Basic UI</t>
+  </si>
+  <si>
+    <t>3: Basic Reactivity</t>
+  </si>
+  <si>
+    <t>4: Rshiny Case Study</t>
+  </si>
+  <si>
+    <t>5: Workflow</t>
+  </si>
+  <si>
+    <t>7: Graphics</t>
+  </si>
+  <si>
+    <t>14: Reactive Graph</t>
+  </si>
+  <si>
+    <t>16: Escaping the Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Introduction </t>
+  </si>
+  <si>
+    <t>Working in GitHub</t>
   </si>
 </sst>
 </file>
@@ -169,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +156,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,10 +403,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -459,12 +435,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -472,8 +442,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -789,10 +774,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,15 +788,15 @@
     <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -819,554 +804,572 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45299</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>45301</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
       <c r="D4" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45303</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45306</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45308</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
       <c r="D7" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45310</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
       <c r="D8" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45313</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
       <c r="D9" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45315</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="27">
+        <v>7</v>
+      </c>
       <c r="D10" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45317</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45320</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="D12" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45322</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45324</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45327</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="13">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45329</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45331</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>45334</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>45336</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>45338</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45341</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="13">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45343</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45345</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>45348</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>45350</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>45352</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45355</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>45357</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45359</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>45362</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B30" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="14">
         <v>9</v>
       </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>45364</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>4</v>
+      <c r="B31" s="22" t="s">
+        <v>3</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>45366</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B32" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>45369</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>45371</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>45373</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B35" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>45376</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="14">
         <v>11</v>
       </c>
-      <c r="E36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>45378</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>45380</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>40</v>
+      <c r="B38" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>45383</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>45385</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>45387</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>45390</v>
       </c>
-      <c r="B42" s="24" t="s">
-        <v>40</v>
+      <c r="B42" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>45392</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>40</v>
+      <c r="B43" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>45394</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>40</v>
+      <c r="B44" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>45397</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45399</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45401</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>45404</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="14">
@@ -1378,29 +1381,29 @@
         <v>45406</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C49" s="12"/>
-      <c r="D49" s="23">
+      <c r="D49" s="21">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25">
+      <c r="A50" s="23">
         <v>45408</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="27"/>
+      <c r="B50" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="25"/>
       <c r="D50" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" t="s">
-        <v>2</v>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1408,36 +1411,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
+      <c r="B53" s="28" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -1746,7 +1737,10 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B53" r:id="rId1" xr:uid="{95653CEF-FA84-487F-8259-DD07398F7368}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="95" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>